--- a/block1_distractors.xlsx
+++ b/block1_distractors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pushkarsingh/Documents/01 University/03 Self Prioritisation Research/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8FD4F53-84C5-B049-8B13-B4E10C79E674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD986F1-1FB1-E045-9DA3-BF68AF795FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14760" xr2:uid="{D3DB7413-E5FE-AF48-AAC8-4C8C9B29E042}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
   <si>
     <t>distractors_blockOne</t>
   </si>
@@ -288,36 +288,6 @@
   </si>
   <si>
     <t>DistATwo/1321.jpg</t>
-  </si>
-  <si>
-    <t>DistATwo/3061.jpg</t>
-  </si>
-  <si>
-    <t>DistATwo/4490.jpg</t>
-  </si>
-  <si>
-    <t>DistATwo/6350.jpg</t>
-  </si>
-  <si>
-    <t>DistATwo/7361.jpg</t>
-  </si>
-  <si>
-    <t>DistATwo/4693.jpg</t>
-  </si>
-  <si>
-    <t>DistATwo/1303.jpg</t>
-  </si>
-  <si>
-    <t>DistATwo/8191.jpg</t>
-  </si>
-  <si>
-    <t>DistATwo/8160.jpg</t>
-  </si>
-  <si>
-    <t>DistATwo/1302.jpg</t>
-  </si>
-  <si>
-    <t>DistATwo/4672.jpg</t>
   </si>
 </sst>
 </file>
@@ -381,9 +351,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +391,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -527,7 +497,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,7 +639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A3C410-677E-854F-B2C2-6F891752385F}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:B91"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,86 +1351,6 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/block1_distractors.xlsx
+++ b/block1_distractors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pushkarsingh/Documents/01 University/03 Self Prioritisation Research/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD986F1-1FB1-E045-9DA3-BF68AF795FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE73E5B-B07B-CF42-B7AE-C003229587B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14760" xr2:uid="{D3DB7413-E5FE-AF48-AAC8-4C8C9B29E042}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
